--- a/biology/Médecine/Membrane_intercostale_externe/Membrane_intercostale_externe.xlsx
+++ b/biology/Médecine/Membrane_intercostale_externe/Membrane_intercostale_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane intercostale externe (ou membrane intercostale externe postérieure de Sauvé et Tinel) est le tissu conjonctif qui double en profondeur le muscle intercostal externe.
 Elle occupe l'espace intercostal entre son bord postérieur et le bord postérieur du muscle intercostal interne.
